--- a/data/raw-data/rawdata.xlsx
+++ b/data/raw-data/rawdata.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,1318 +360,813 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
           <t>y</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>z</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>group1</t>
-        </is>
+      <c r="A2">
+        <v>4.317866040724392</v>
       </c>
       <c r="B2">
-        <v>7.1488819165558</v>
-      </c>
-      <c r="C2">
-        <v>10.23190936821077</v>
+        <v>7.877295302148109</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>group2</t>
-        </is>
+      <c r="A3">
+        <v>8.004849068469172</v>
       </c>
       <c r="B3">
-        <v>8.791309548397159</v>
-      </c>
-      <c r="C3">
-        <v>9.109394073530137</v>
+        <v>15.91471604343469</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>group1</t>
-        </is>
+      <c r="A4">
+        <v>6.056615424632801</v>
       </c>
       <c r="B4">
-        <v>3.794005392789811</v>
-      </c>
-      <c r="C4">
-        <v>6.450273278701992</v>
+        <v>9.730003958056752</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>group2</t>
-        </is>
+      <c r="A5">
+        <v>6.084382710928617</v>
       </c>
       <c r="B5">
-        <v>4.218264358553726</v>
-      </c>
-      <c r="C5">
-        <v>10.0338780652717</v>
+        <v>9.957948244204227</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>group1</t>
-        </is>
+      <c r="A6">
+        <v>4.726653288564247</v>
       </c>
       <c r="B6">
-        <v>4.167555936939616</v>
-      </c>
-      <c r="C6">
-        <v>12.9748031081781</v>
+        <v>6.629629188669539</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>group2</t>
-        </is>
+      <c r="A7">
+        <v>2.726532293394536</v>
       </c>
       <c r="B7">
-        <v>4.248685154359218</v>
-      </c>
-      <c r="C7">
-        <v>14.78190236171121</v>
+        <v>5.967609629871381</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>group1</t>
-        </is>
+      <c r="A8">
+        <v>2.006745691288412</v>
       </c>
       <c r="B8">
-        <v>4.266738108595284</v>
-      </c>
-      <c r="C8">
-        <v>5.88186618721249</v>
+        <v>5.430532686813736</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>group2</t>
-        </is>
+      <c r="A9">
+        <v>4.55322871288681</v>
       </c>
       <c r="B9">
-        <v>4.408645094598227</v>
-      </c>
-      <c r="C9">
-        <v>9.251167200873041</v>
+        <v>8.734095368853477</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>group1</t>
-        </is>
+      <c r="A10">
+        <v>9.003438455545753</v>
       </c>
       <c r="B10">
-        <v>7.88364082039974</v>
-      </c>
-      <c r="C10">
-        <v>13.47827358056666</v>
+        <v>14.08277339224295</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>group2</t>
-        </is>
+      <c r="A11">
+        <v>5.443407632427243</v>
       </c>
       <c r="B11">
-        <v>3.604923416173918</v>
-      </c>
-      <c r="C11">
-        <v>6.65733295646921</v>
+        <v>15.26138453600462</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>group1</t>
-        </is>
+      <c r="A12">
+        <v>5.328745818492775</v>
       </c>
       <c r="B12">
-        <v>4.22366498815728</v>
-      </c>
-      <c r="C12">
-        <v>2.414497933448835</v>
+        <v>14.70509420305836</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>group2</t>
-        </is>
+      <c r="A13">
+        <v>5.665247217700019</v>
       </c>
       <c r="B13">
-        <v>6.305072904343034</v>
-      </c>
-      <c r="C13">
-        <v>7.192292324460063</v>
+        <v>13.89026670984324</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>group1</t>
-        </is>
+      <c r="A14">
+        <v>4.229584001817138</v>
       </c>
       <c r="B14">
-        <v>7.249544893070258</v>
-      </c>
-      <c r="C14">
-        <v>7.098281626193304</v>
+        <v>9.287211245669164</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>group2</t>
-        </is>
+      <c r="A15">
+        <v>2.202491946884214</v>
       </c>
       <c r="B15">
-        <v>3.455778393952145</v>
-      </c>
-      <c r="C15">
-        <v>10.14246577698339</v>
+        <v>6.327549592957882</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>group1</t>
-        </is>
+      <c r="A16">
+        <v>10.35148159170364</v>
       </c>
       <c r="B16">
-        <v>3.983827567723427</v>
-      </c>
-      <c r="C16">
-        <v>8.788789619505897</v>
+        <v>9.016561959579786</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>group2</t>
-        </is>
+      <c r="A17">
+        <v>4.152627822636034</v>
       </c>
       <c r="B17">
-        <v>6.047241180996034</v>
-      </c>
-      <c r="C17">
-        <v>10.6944883847339</v>
+        <v>2.762649171183249</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>group1</t>
-        </is>
+      <c r="A18">
+        <v>4.402796976133872</v>
       </c>
       <c r="B18">
-        <v>7.03550845307594</v>
-      </c>
-      <c r="C18">
-        <v>8.732882776219764</v>
+        <v>9.05862137966983</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>group2</t>
-        </is>
+      <c r="A19">
+        <v>1.41531654629405</v>
       </c>
       <c r="B19">
-        <v>4.497670823824043</v>
-      </c>
-      <c r="C19">
-        <v>11.12235518408589</v>
+        <v>14.97963611393715</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>group1</t>
-        </is>
+      <c r="A20">
+        <v>4.503983549863804</v>
       </c>
       <c r="B20">
-        <v>2.14001310522278</v>
-      </c>
-      <c r="C20">
-        <v>8.901982675008956</v>
+        <v>10.39285930182255</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>group2</t>
-        </is>
+      <c r="A21">
+        <v>4.505392163250789</v>
       </c>
       <c r="B21">
-        <v>8.418242064201763</v>
-      </c>
-      <c r="C21">
-        <v>13.57030433956319</v>
+        <v>13.28766604806875</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>group1</t>
-        </is>
+      <c r="A22">
+        <v>4.488979242947308</v>
       </c>
       <c r="B22">
-        <v>7.870139144623249</v>
-      </c>
-      <c r="C22">
-        <v>7.788017424228313</v>
+        <v>11.46802287083174</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>group2</t>
-        </is>
+      <c r="A23">
+        <v>1.426123799814865</v>
       </c>
       <c r="B23">
-        <v>3.579257708300239</v>
-      </c>
-      <c r="C23">
-        <v>10.8719999363178</v>
+        <v>7.663269113654042</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>group1</t>
-        </is>
+      <c r="A24">
+        <v>8.569325632049523</v>
       </c>
       <c r="B24">
-        <v>4.869864852688832</v>
-      </c>
-      <c r="C24">
-        <v>7.345451295146633</v>
+        <v>15.23067805878805</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>group2</t>
-        </is>
+      <c r="A25">
+        <v>8.527172695491766</v>
       </c>
       <c r="B25">
-        <v>1.481062529268137</v>
-      </c>
-      <c r="C25">
-        <v>10.6240194366125</v>
+        <v>9.764838144006802</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>group1</t>
-        </is>
+      <c r="A26">
+        <v>6.379200443868191</v>
       </c>
       <c r="B26">
-        <v>6.139445943638203</v>
-      </c>
-      <c r="C26">
-        <v>9.856809482564421</v>
+        <v>7.073338622432356</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>group2</t>
-        </is>
+      <c r="A27">
+        <v>2.798518711152155</v>
       </c>
       <c r="B27">
-        <v>8.224693596403569</v>
-      </c>
-      <c r="C27">
-        <v>4.946438061584223</v>
+        <v>10.21197947421571</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>group1</t>
-        </is>
+      <c r="A28">
+        <v>6.429018713795623</v>
       </c>
       <c r="B28">
-        <v>1.725438705790567</v>
-      </c>
-      <c r="C28">
-        <v>9.567320330143147</v>
+        <v>5.444201413530415</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>group2</t>
-        </is>
+      <c r="A29">
+        <v>4.507059366131957</v>
       </c>
       <c r="B29">
-        <v>3.440862973596506</v>
-      </c>
-      <c r="C29">
-        <v>13.54064099650794</v>
+        <v>12.59133709837396</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>group1</t>
-        </is>
+      <c r="A30">
+        <v>4.360427668145591</v>
       </c>
       <c r="B30">
-        <v>3.717646132498872</v>
-      </c>
-      <c r="C30">
-        <v>12.04419976959851</v>
+        <v>11.5047051560931</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>group2</t>
-        </is>
+      <c r="A31">
+        <v>7.725288585909399</v>
       </c>
       <c r="B31">
-        <v>3.637737212857688</v>
-      </c>
-      <c r="C31">
-        <v>10.42974289266265</v>
+        <v>8.93565601105904</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>group1</t>
-        </is>
+      <c r="A32">
+        <v>2.544234820034638</v>
       </c>
       <c r="B32">
-        <v>0.9334288087641012</v>
-      </c>
-      <c r="C32">
-        <v>6.423050668861252</v>
+        <v>8.53471333722643</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>group2</t>
-        </is>
+      <c r="A33">
+        <v>3.977561534499054</v>
       </c>
       <c r="B33">
-        <v>6.001927118495813</v>
-      </c>
-      <c r="C33">
-        <v>13.50768595836727</v>
+        <v>12.80888184187809</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>group1</t>
-        </is>
+      <c r="A34">
+        <v>3.537610001870073</v>
       </c>
       <c r="B34">
-        <v>1.936403720068515</v>
-      </c>
-      <c r="C34">
-        <v>10.23760512683612</v>
+        <v>6.812774840733574</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>group2</t>
-        </is>
+      <c r="A35">
+        <v>5.039504013753581</v>
       </c>
       <c r="B35">
-        <v>4.950004721443473</v>
-      </c>
-      <c r="C35">
-        <v>8.644678741693969</v>
+        <v>7.048537384886835</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>group1</t>
-        </is>
+      <c r="A36">
+        <v>1.854272170580023</v>
       </c>
       <c r="B36">
-        <v>6.185969442050585</v>
-      </c>
-      <c r="C36">
-        <v>14.92608463840232</v>
+        <v>11.27274363106024</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>group2</t>
-        </is>
+      <c r="A37">
+        <v>3.593333460343423</v>
       </c>
       <c r="B37">
-        <v>4.60360915703072</v>
-      </c>
-      <c r="C37">
-        <v>7.691223035201446</v>
+        <v>8.646059558342097</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>group1</t>
-        </is>
+      <c r="A38">
+        <v>6.43186417781533</v>
       </c>
       <c r="B38">
-        <v>6.784016784947053</v>
-      </c>
-      <c r="C38">
-        <v>10.91008288227354</v>
+        <v>12.7752543901717</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>group2</t>
-        </is>
+      <c r="A39">
+        <v>5.930429812846217</v>
       </c>
       <c r="B39">
-        <v>4.948569858163693</v>
-      </c>
-      <c r="C39">
-        <v>13.84521226355054</v>
+        <v>9.40413757056306</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>group1</t>
-        </is>
+      <c r="A40">
+        <v>3.052195387191417</v>
       </c>
       <c r="B40">
-        <v>3.70467909882867</v>
-      </c>
-      <c r="C40">
-        <v>11.80666838551129</v>
+        <v>13.58455305070119</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>group2</t>
-        </is>
+      <c r="A41">
+        <v>6.118435460936666</v>
       </c>
       <c r="B41">
-        <v>6.29271883006928</v>
-      </c>
-      <c r="C41">
-        <v>9.078933206389493</v>
+        <v>11.48663411554045</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>group1</t>
-        </is>
+      <c r="A42">
+        <v>0.1347205091886678</v>
       </c>
       <c r="B42">
-        <v>4.132334519940823</v>
-      </c>
-      <c r="C42">
-        <v>8.744745689732076</v>
+        <v>3.264542277721083</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>group2</t>
-        </is>
+      <c r="A43">
+        <v>4.319030146595709</v>
       </c>
       <c r="B43">
-        <v>8.545222369957006</v>
-      </c>
-      <c r="C43">
-        <v>11.06540659013825</v>
+        <v>5.993885918745342</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>group1</t>
-        </is>
+      <c r="A44">
+        <v>6.426066389700466</v>
       </c>
       <c r="B44">
-        <v>4.963480577673979</v>
-      </c>
-      <c r="C44">
-        <v>11.54044334379867</v>
+        <v>13.84832561853308</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>group2</t>
-        </is>
+      <c r="A45">
+        <v>3.681925227021744</v>
       </c>
       <c r="B45">
-        <v>6.705629987201062</v>
-      </c>
-      <c r="C45">
-        <v>10.05582220098622</v>
+        <v>12.07238771252113</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>group1</t>
-        </is>
+      <c r="A46">
+        <v>4.927194754867029</v>
       </c>
       <c r="B46">
-        <v>5.410325806488053</v>
-      </c>
-      <c r="C46">
-        <v>13.95534691677003</v>
+        <v>7.098811996425074</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>group2</t>
-        </is>
+      <c r="A47">
+        <v>1.813427396946187</v>
       </c>
       <c r="B47">
-        <v>-1.016097197840962</v>
-      </c>
-      <c r="C47">
-        <v>9.802504000485541</v>
+        <v>5.962618944939677</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>group1</t>
-        </is>
+      <c r="A48">
+        <v>6.695585594495538</v>
       </c>
       <c r="B48">
-        <v>2.267776137342033</v>
-      </c>
-      <c r="C48">
-        <v>7.899111765046889</v>
+        <v>13.10099616794719</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>group2</t>
-        </is>
+      <c r="A49">
+        <v>1.299222302678774</v>
       </c>
       <c r="B49">
-        <v>4.151795479710376</v>
-      </c>
-      <c r="C49">
-        <v>11.61197839456402</v>
+        <v>7.564670621010839</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>group1</t>
-        </is>
+      <c r="A50">
+        <v>4.352698736619372</v>
       </c>
       <c r="B50">
-        <v>5.473607327491115</v>
-      </c>
-      <c r="C50">
-        <v>3.394653032938246</v>
+        <v>15.40517643585452</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>group2</t>
-        </is>
+      <c r="A51">
+        <v>4.489503774993655</v>
       </c>
       <c r="B51">
-        <v>0.3145537592820808</v>
-      </c>
-      <c r="C51">
-        <v>11.17592123139523</v>
+        <v>15.31462588113822</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>group1</t>
-        </is>
+      <c r="A52">
+        <v>5.1218424546135</v>
       </c>
       <c r="B52">
-        <v>6.923393266761424</v>
-      </c>
-      <c r="C52">
-        <v>11.49088285727116</v>
+        <v>5.635925890592827</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>group2</t>
-        </is>
+      <c r="A53">
+        <v>3.353016741962244</v>
       </c>
       <c r="B53">
-        <v>3.791148532291119</v>
-      </c>
-      <c r="C53">
-        <v>9.325375853710293</v>
+        <v>7.46303706227309</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>group1</t>
-        </is>
+      <c r="A54">
+        <v>8.659460969672072</v>
       </c>
       <c r="B54">
-        <v>3.494245441274173</v>
-      </c>
-      <c r="C54">
-        <v>6.648570504004346</v>
+        <v>6.248561022027455</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>group2</t>
-        </is>
+      <c r="A55">
+        <v>2.140167568436997</v>
       </c>
       <c r="B55">
-        <v>1.888776814911509</v>
-      </c>
-      <c r="C55">
-        <v>8.815016190058369</v>
+        <v>12.00186420371253</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>group1</t>
-        </is>
+      <c r="A56">
+        <v>5.50827428600917</v>
       </c>
       <c r="B56">
-        <v>2.092212523997885</v>
-      </c>
-      <c r="C56">
-        <v>14.64949102670892</v>
+        <v>6.12769093708711</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>group2</t>
-        </is>
+      <c r="A57">
+        <v>-0.8795473906719646</v>
       </c>
       <c r="B57">
-        <v>5.112663672108821</v>
-      </c>
-      <c r="C57">
-        <v>7.769456560604002</v>
+        <v>3.894989384593282</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>group1</t>
-        </is>
+      <c r="A58">
+        <v>5.00483161788695</v>
       </c>
       <c r="B58">
-        <v>6.018738813347785</v>
-      </c>
-      <c r="C58">
-        <v>3.004863646811282</v>
+        <v>16.06404098347755</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>group2</t>
-        </is>
+      <c r="A59">
+        <v>6.019331142523871</v>
       </c>
       <c r="B59">
-        <v>0.8042340804314012</v>
-      </c>
-      <c r="C59">
-        <v>12.43673632662764</v>
+        <v>13.01792046283651</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>group1</t>
-        </is>
+      <c r="A60">
+        <v>2.830559997772078</v>
       </c>
       <c r="B60">
-        <v>2.991276041101331</v>
-      </c>
-      <c r="C60">
-        <v>8.496068028395946</v>
+        <v>12.451370803675</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>group2</t>
-        </is>
+      <c r="A61">
+        <v>6.409665953755132</v>
       </c>
       <c r="B61">
-        <v>6.071543444505183</v>
-      </c>
-      <c r="C61">
-        <v>8.467340302142929</v>
+        <v>8.00803514926827</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>group1</t>
-        </is>
+      <c r="A62">
+        <v>5.661952699988424</v>
       </c>
       <c r="B62">
-        <v>4.093925830700164</v>
-      </c>
-      <c r="C62">
-        <v>6.353907876534967</v>
+        <v>9.966156306248809</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>group2</t>
-        </is>
+      <c r="A63">
+        <v>6.952654945952744</v>
       </c>
       <c r="B63">
-        <v>9.330737003634527</v>
-      </c>
-      <c r="C63">
-        <v>9.932324114958334</v>
+        <v>11.85903176862938</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>group1</t>
-        </is>
+      <c r="A64">
+        <v>3.313320239202529</v>
       </c>
       <c r="B64">
-        <v>7.491493345496211</v>
-      </c>
-      <c r="C64">
-        <v>12.10371790128912</v>
+        <v>6.156283774107392</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>group2</t>
-        </is>
+      <c r="A65">
+        <v>3.058840190274174</v>
       </c>
       <c r="B65">
-        <v>6.190996068139191</v>
-      </c>
-      <c r="C65">
-        <v>8.237553923230603</v>
+        <v>9.627216020871856</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>group1</t>
-        </is>
+      <c r="A66">
+        <v>1.456937302714138</v>
       </c>
       <c r="B66">
-        <v>5.009768899076378</v>
-      </c>
-      <c r="C66">
-        <v>8.17981617574363</v>
+        <v>10.52722496350531</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>group2</t>
-        </is>
+      <c r="A67">
+        <v>4.355059316708103</v>
       </c>
       <c r="B67">
-        <v>5.558721564110519</v>
-      </c>
-      <c r="C67">
-        <v>13.28992064500088</v>
+        <v>15.07832138341814</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>group1</t>
-        </is>
+      <c r="A68">
+        <v>2.322398515290999</v>
       </c>
       <c r="B68">
-        <v>3.588187749464748</v>
-      </c>
-      <c r="C68">
-        <v>9.257470968759112</v>
+        <v>11.9263981516208</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>group2</t>
-        </is>
+      <c r="A69">
+        <v>6.376312056292111</v>
       </c>
       <c r="B69">
-        <v>6.256034305914502</v>
-      </c>
-      <c r="C69">
-        <v>9.520294860030258</v>
+        <v>13.84669909704763</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>group1</t>
-        </is>
+      <c r="A70">
+        <v>5.142561304501157</v>
       </c>
       <c r="B70">
-        <v>7.960427920171407</v>
-      </c>
-      <c r="C70">
-        <v>8.122665247794776</v>
+        <v>10.42164092064215</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>group2</t>
-        </is>
+      <c r="A71">
+        <v>9.379504718558358</v>
       </c>
       <c r="B71">
-        <v>7.166859820166566</v>
-      </c>
-      <c r="C71">
-        <v>12.70130390680071</v>
+        <v>6.662491950458292</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>group1</t>
-        </is>
+      <c r="A72">
+        <v>2.684584801397043</v>
       </c>
       <c r="B72">
-        <v>3.373511486671818</v>
-      </c>
-      <c r="C72">
-        <v>7.017419112201324</v>
+        <v>8.980969084114307</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>group2</t>
-        </is>
+      <c r="A73">
+        <v>7.363376128184665</v>
       </c>
       <c r="B73">
-        <v>1.762246301552824</v>
-      </c>
-      <c r="C73">
-        <v>12.54775115764109</v>
+        <v>5.005706082212576</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>group1</t>
-        </is>
+      <c r="A74">
+        <v>3.945263276783644</v>
       </c>
       <c r="B74">
-        <v>4.780688601023518</v>
-      </c>
-      <c r="C74">
-        <v>12.41710686692931</v>
+        <v>12.78655528516081</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>group2</t>
-        </is>
+      <c r="A75">
+        <v>2.086743977378487</v>
       </c>
       <c r="B75">
-        <v>5.881778741833955</v>
-      </c>
-      <c r="C75">
-        <v>8.597197192026341</v>
+        <v>14.25048050414733</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>group1</t>
-        </is>
+      <c r="A76">
+        <v>6.145934740986335</v>
       </c>
       <c r="B76">
-        <v>7.701987959617195</v>
-      </c>
-      <c r="C76">
-        <v>12.54526094117003</v>
+        <v>9.811837667118958</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>group2</t>
-        </is>
+      <c r="A77">
+        <v>2.133244590655587</v>
       </c>
       <c r="B77">
-        <v>2.362781030932873</v>
-      </c>
-      <c r="C77">
-        <v>12.96030959078805</v>
+        <v>7.057292991706386</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>group1</t>
-        </is>
+      <c r="A78">
+        <v>2.889629962947</v>
       </c>
       <c r="B78">
-        <v>5.728769185214896</v>
-      </c>
-      <c r="C78">
-        <v>11.72686086555808</v>
+        <v>13.26145075371102</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>group2</t>
-        </is>
+      <c r="A79">
+        <v>3.533776245156096</v>
       </c>
       <c r="B79">
-        <v>5.466999670177036</v>
-      </c>
-      <c r="C79">
-        <v>16.07452613625451</v>
+        <v>10.41798107968206</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>group1</t>
-        </is>
+      <c r="A80">
+        <v>5.421814528502597</v>
       </c>
       <c r="B80">
-        <v>7.387910522518103</v>
-      </c>
-      <c r="C80">
-        <v>4.112940426324879</v>
+        <v>8.841183706978645</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>group2</t>
-        </is>
+      <c r="A81">
+        <v>3.002158545877981</v>
       </c>
       <c r="B81">
-        <v>4.944180055740845</v>
-      </c>
-      <c r="C81">
-        <v>6.505237208087237</v>
+        <v>13.37075626954005</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>group1</t>
-        </is>
+      <c r="A82">
+        <v>7.155700646411248</v>
       </c>
       <c r="B82">
-        <v>4.285402290991494</v>
-      </c>
-      <c r="C82">
-        <v>5.870442358807496</v>
+        <v>7.72046302792722</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>group2</t>
-        </is>
+      <c r="A83">
+        <v>2.602051234984251</v>
       </c>
       <c r="B83">
-        <v>2.706371727763266</v>
-      </c>
-      <c r="C83">
-        <v>10.5030398034093</v>
+        <v>13.4468773096871</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>group1</t>
-        </is>
+      <c r="A84">
+        <v>5.433274070369421</v>
       </c>
       <c r="B84">
-        <v>3.965159032812754</v>
-      </c>
-      <c r="C84">
-        <v>14.75388723747915</v>
+        <v>7.47257122318975</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>group2</t>
-        </is>
+      <c r="A85">
+        <v>5.286174059577855</v>
       </c>
       <c r="B85">
-        <v>4.275752454843455</v>
-      </c>
-      <c r="C85">
-        <v>15.03366685892874</v>
+        <v>11.17424002117831</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>group1</t>
-        </is>
+      <c r="A86">
+        <v>2.868499817894039</v>
       </c>
       <c r="B86">
-        <v>9.70110865157821</v>
-      </c>
-      <c r="C86">
-        <v>11.46489009518487</v>
+        <v>12.67413172695591</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>group2</t>
-        </is>
+      <c r="A87">
+        <v>4.142753178596442</v>
       </c>
       <c r="B87">
-        <v>9.893062751399917</v>
-      </c>
-      <c r="C87">
-        <v>12.63601978768097</v>
+        <v>5.994223862337025</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>group1</t>
-        </is>
+      <c r="A88">
+        <v>3.687641046457307</v>
       </c>
       <c r="B88">
-        <v>4.666593441031448</v>
-      </c>
-      <c r="C88">
-        <v>9.565375377910357</v>
+        <v>11.1943704335048</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>group2</t>
-        </is>
+      <c r="A89">
+        <v>6.918788653715226</v>
       </c>
       <c r="B89">
-        <v>2.912665121876225</v>
-      </c>
-      <c r="C89">
-        <v>11.40691528022262</v>
+        <v>9.665239591153522</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>group1</t>
-        </is>
+      <c r="A90">
+        <v>8.112105272204442</v>
       </c>
       <c r="B90">
-        <v>1.054130131850654</v>
-      </c>
-      <c r="C90">
-        <v>11.12870643138845</v>
+        <v>12.02723174992686</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>group2</t>
-        </is>
+      <c r="A91">
+        <v>2.918407132423507</v>
       </c>
       <c r="B91">
-        <v>6.029343266876058</v>
-      </c>
-      <c r="C91">
-        <v>7.716879174830559</v>
+        <v>7.634206193862347</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>group1</t>
-        </is>
+      <c r="A92">
+        <v>6.861144817080493</v>
       </c>
       <c r="B92">
-        <v>2.818852832530285</v>
-      </c>
-      <c r="C92">
-        <v>9.120115198747408</v>
+        <v>9.739040997827519</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>group2</t>
-        </is>
+      <c r="A93">
+        <v>4.849108137975618</v>
       </c>
       <c r="B93">
-        <v>9.569318651088727</v>
-      </c>
-      <c r="C93">
-        <v>9.595476206777446</v>
+        <v>14.14685202326737</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>group1</t>
-        </is>
+      <c r="A94">
+        <v>1.06560930189808</v>
       </c>
       <c r="B94">
-        <v>3.228764854684082</v>
-      </c>
-      <c r="C94">
-        <v>14.18153744851906</v>
+        <v>10.50547049142408</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>group2</t>
-        </is>
+      <c r="A95">
+        <v>3.488192714709613</v>
       </c>
       <c r="B95">
-        <v>5.222212859491443</v>
-      </c>
-      <c r="C95">
-        <v>6.889033930905122</v>
+        <v>12.46957284482535</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>group1</t>
-        </is>
+      <c r="A96">
+        <v>5.922298321013525</v>
       </c>
       <c r="B96">
-        <v>12.62055336142133</v>
-      </c>
-      <c r="C96">
-        <v>3.656994556589025</v>
+        <v>9.337316207150673</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>group2</t>
-        </is>
+      <c r="A97">
+        <v>5.290213262095744</v>
       </c>
       <c r="B97">
-        <v>2.782180004113493</v>
-      </c>
-      <c r="C97">
-        <v>12.3048346546132</v>
+        <v>6.911825035855868</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>group1</t>
-        </is>
+      <c r="A98">
+        <v>0.1153773578371542</v>
       </c>
       <c r="B98">
-        <v>5.615133248842907</v>
-      </c>
-      <c r="C98">
-        <v>7.551518137739544</v>
+        <v>9.967222927458614</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>group2</t>
-        </is>
+      <c r="A99">
+        <v>6.160637370903146</v>
       </c>
       <c r="B99">
-        <v>2.786211055549674</v>
-      </c>
-      <c r="C99">
-        <v>8.691679230518277</v>
+        <v>6.325026533677681</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>group1</t>
-        </is>
+      <c r="A100">
+        <v>6.31010399697349</v>
       </c>
       <c r="B100">
-        <v>5.69530729764392</v>
-      </c>
-      <c r="C100">
-        <v>12.71411509384843</v>
+        <v>2.211665834650088</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>group2</t>
-        </is>
+      <c r="A101">
+        <v>4.390982325481163</v>
       </c>
       <c r="B101">
-        <v>3.253470929875912</v>
-      </c>
-      <c r="C101">
-        <v>7.71074120635505</v>
+        <v>13.50736777597446</v>
       </c>
     </row>
   </sheetData>
